--- a/Results.xlsx
+++ b/Results.xlsx
@@ -10,13 +10,12 @@
     <sheet name="financial-status" r:id="rId4" sheetId="2"/>
     <sheet name="future-payments" r:id="rId5" sheetId="3"/>
     <sheet name="payment methods" r:id="rId6" sheetId="4"/>
-    <sheet name="contract" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="273">
   <si>
     <t>deviceType</t>
   </si>
@@ -213,6 +212,9 @@
     <t>76652047121</t>
   </si>
   <si>
+    <t>SUSPENDED</t>
+  </si>
+  <si>
     <t>118789584</t>
   </si>
   <si>
@@ -240,9 +242,6 @@
     <t>127188714</t>
   </si>
   <si>
-    <t>SUSPENDED</t>
-  </si>
-  <si>
     <t>089594727204215090</t>
   </si>
   <si>
@@ -435,7 +434,7 @@
     <t>2019-12-18</t>
   </si>
   <si>
-    <t>14</t>
+    <t>12</t>
   </si>
   <si>
     <t>589.48</t>
@@ -453,7 +452,7 @@
     <t>2019-08-29</t>
   </si>
   <si>
-    <t>-97</t>
+    <t>-99</t>
   </si>
   <si>
     <t>2019-12-28</t>
@@ -471,7 +470,7 @@
     <t>2019-12-07</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
     <t>89.73</t>
@@ -519,7 +518,7 @@
     <t>2019-12-13</t>
   </si>
   <si>
-    <t>9</t>
+    <t>7</t>
   </si>
   <si>
     <t>96.04</t>
@@ -546,19 +545,22 @@
     <t>207.97</t>
   </si>
   <si>
+    <t>136.37</t>
+  </si>
+  <si>
     <t>1726.37</t>
   </si>
   <si>
-    <t>1578.0</t>
+    <t>1590.0</t>
   </si>
   <si>
     <t>2019-12-22</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2019-11-28</t>
+    <t>1588.0</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
   </si>
   <si>
     <t>149</t>
@@ -648,199 +650,172 @@
     <t>1200774167</t>
   </si>
   <si>
-    <t>SCHEDULED</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2019-11-15</t>
+    <t>6011</t>
+  </si>
+  <si>
+    <t>DISCOVER</t>
+  </si>
+  <si>
+    <t>1200776904</t>
+  </si>
+  <si>
+    <t>DC*6011</t>
+  </si>
+  <si>
+    <t>uPq68I8MUyAkqBtZ6UjF2GAHj0z68hwJqjxR</t>
+  </si>
+  <si>
+    <t>09/22</t>
+  </si>
+  <si>
+    <t>paymentMethodToken</t>
+  </si>
+  <si>
+    <t>isAutopay</t>
+  </si>
+  <si>
+    <t>isPrimary</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>securityCode</t>
+  </si>
+  <si>
+    <t>isPinlessDebit</t>
+  </si>
+  <si>
+    <t>isCardAOOwned</t>
+  </si>
+  <si>
+    <t>XTugkM6M5kyPWC3XILlgTuyCQ7E1bl6cPgKi</t>
+  </si>
+  <si>
+    <t>TNWUG6IAJSGH4113</t>
+  </si>
+  <si>
+    <t>4113</t>
+  </si>
+  <si>
+    <t>01/23</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>61820</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>mbLOwywdmmAKgd5WaCUsup5PU25HH7sYifGU</t>
+  </si>
+  <si>
+    <t>12/21</t>
+  </si>
+  <si>
+    <t>Visa*4113</t>
+  </si>
+  <si>
+    <t>2109 Fox Dr</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>q6OgjltammSVgedVOM4Yyo76v8wUGHUDK1uu</t>
+  </si>
+  <si>
+    <t>HGRD4IT5L1TR7894</t>
+  </si>
+  <si>
+    <t>7894</t>
+  </si>
+  <si>
+    <t>02/22</t>
+  </si>
+  <si>
+    <t>Mastercard-*7894</t>
+  </si>
+  <si>
+    <t>66223</t>
+  </si>
+  <si>
+    <t>uPq68I8DsEwf9H6BaDHFS6qCAITw8RBy6tjx</t>
+  </si>
+  <si>
+    <t>X9XP878DMYYI1881</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>Visa-*1881</t>
+  </si>
+  <si>
+    <t>2109, Fox Drive</t>
+  </si>
+  <si>
+    <t>WICRHQSZ7AE46011</t>
+  </si>
+  <si>
+    <t>113526468 113526468</t>
+  </si>
+  <si>
+    <t>11504 FLOYD DR APT 2202</t>
+  </si>
+  <si>
+    <t>APT 2202</t>
+  </si>
+  <si>
+    <t>OVERLAND PARK</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>66210</t>
+  </si>
+  <si>
+    <t>uPq68I8RO7cBu9uULv3qkhbMd7k8kcWp9Nx9</t>
+  </si>
+  <si>
+    <t>XUQVR5W63C7M4376</t>
+  </si>
+  <si>
+    <t>AMEX</t>
   </si>
   <si>
     <t>4376</t>
   </si>
   <si>
-    <t>AMEX</t>
-  </si>
-  <si>
-    <t>1200769744</t>
+    <t>01/22</t>
   </si>
   <si>
     <t>Amex*4376</t>
-  </si>
-  <si>
-    <t>uPq68I8RO7cBu9uULv3qkhbMd7k8kcWp9Nx9</t>
-  </si>
-  <si>
-    <t>01/22</t>
-  </si>
-  <si>
-    <t>ARRANGEMENT</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>2019-11-24</t>
-  </si>
-  <si>
-    <t>6011</t>
-  </si>
-  <si>
-    <t>DISCOVER</t>
-  </si>
-  <si>
-    <t>1200773353</t>
-  </si>
-  <si>
-    <t>180626562</t>
-  </si>
-  <si>
-    <t>DC*6011</t>
-  </si>
-  <si>
-    <t>uPq68I8MUyAkqBtZ6UjF2GAHj0z68hwJqjxR</t>
-  </si>
-  <si>
-    <t>09/22</t>
-  </si>
-  <si>
-    <t>1200776904</t>
-  </si>
-  <si>
-    <t>paymentMethodToken</t>
-  </si>
-  <si>
-    <t>isAutopay</t>
-  </si>
-  <si>
-    <t>isPrimary</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>securityCode</t>
-  </si>
-  <si>
-    <t>isPinlessDebit</t>
-  </si>
-  <si>
-    <t>isCardAOOwned</t>
-  </si>
-  <si>
-    <t>XTugkM6M5kyPWC3XILlgTuyCQ7E1bl6cPgKi</t>
-  </si>
-  <si>
-    <t>TNWUG6IAJSGH4113</t>
-  </si>
-  <si>
-    <t>4113</t>
-  </si>
-  <si>
-    <t>01/23</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>61820</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>mbLOwywdmmAKgd5WaCUsup5PU25HH7sYifGU</t>
-  </si>
-  <si>
-    <t>12/21</t>
-  </si>
-  <si>
-    <t>Visa*4113</t>
-  </si>
-  <si>
-    <t>2109 Fox Dr</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>q6OgjltammSVgedVOM4Yyo76v8wUGHUDK1uu</t>
-  </si>
-  <si>
-    <t>HGRD4IT5L1TR7894</t>
-  </si>
-  <si>
-    <t>7894</t>
-  </si>
-  <si>
-    <t>02/22</t>
-  </si>
-  <si>
-    <t>Mastercard-*7894</t>
-  </si>
-  <si>
-    <t>66223</t>
-  </si>
-  <si>
-    <t>uPq68I8DsEwf9H6BaDHFS6qCAITw8RBy6tjx</t>
-  </si>
-  <si>
-    <t>X9XP878DMYYI1881</t>
-  </si>
-  <si>
-    <t>1881</t>
-  </si>
-  <si>
-    <t>Visa-*1881</t>
-  </si>
-  <si>
-    <t>2109, Fox Drive</t>
-  </si>
-  <si>
-    <t>WICRHQSZ7AE46011</t>
-  </si>
-  <si>
-    <t>113526468 113526468</t>
-  </si>
-  <si>
-    <t>11504 FLOYD DR APT 2202</t>
-  </si>
-  <si>
-    <t>APT 2202</t>
-  </si>
-  <si>
-    <t>OVERLAND PARK</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>66210</t>
-  </si>
-  <si>
-    <t>XUQVR5W63C7M4376</t>
   </si>
   <si>
     <t>BqsCUyB29N2YaXBXiVF8VOv4SJA3Mw2D6j4g</t>
@@ -1216,13 +1191,13 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1230,43 +1205,43 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1277,13 +1252,13 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1301,16 +1276,16 @@
         <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1321,13 +1296,13 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1345,16 +1320,16 @@
         <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1367,7 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1436,7 +1411,7 @@
         <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1480,7 +1455,7 @@
         <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
@@ -1524,7 +1499,7 @@
         <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1933,7 +1908,7 @@
         <v>159</v>
       </c>
       <c r="U6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1998,7 +1973,7 @@
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -2139,16 +2114,16 @@
         <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
         <v>176</v>
@@ -2157,7 +2132,7 @@
         <v>134</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -2166,16 +2141,16 @@
         <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
@@ -2193,7 +2168,7 @@
         <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2211,40 +2186,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -2334,7 +2309,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>137</v>
@@ -2343,16 +2318,16 @@
         <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -2416,7 +2391,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>148</v>
@@ -2425,16 +2400,16 @@
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -2452,12 +2427,12 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -2466,16 +2441,16 @@
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -2493,12 +2468,12 @@
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
         <v>164</v>
@@ -2507,16 +2482,16 @@
         <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2539,7 +2514,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
         <v>171</v>
@@ -2548,16 +2523,16 @@
         <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -2580,125 +2555,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
         <v>211</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>212</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
         <v>213</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
         <v>214</v>
       </c>
-      <c r="F10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>215</v>
       </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>216</v>
       </c>
-      <c r="J10" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" t="s">
-        <v>218</v>
-      </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" t="s">
-        <v>227</v>
-      </c>
-      <c r="K11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>226</v>
-      </c>
-      <c r="J12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K12" t="s">
-        <v>228</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2719,119 +2612,61 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" t="s">
         <v>188</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
-        <v>186</v>
-      </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="J1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="M1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="R1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" t="s">
-        <v>247</v>
-      </c>
-      <c r="N2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O2" t="s">
-        <v>248</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
         <v>24</v>
@@ -2893,25 +2728,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -2923,19 +2758,19 @@
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="N4" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -2952,25 +2787,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="s">
         <v>198</v>
       </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -2982,19 +2817,19 @@
         <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -3003,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="S5" t="s">
         <v>56</v>
@@ -3011,25 +2846,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -3041,19 +2876,19 @@
         <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="O6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
@@ -3065,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="S6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -3124,7 +2959,7 @@
         <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -3247,25 +3082,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -3274,22 +3109,22 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="M10" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="N10" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O10" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
@@ -3301,30 +3136,30 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -3333,22 +3168,22 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K11" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="L11" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="M11" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="N11" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="O11" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
@@ -3360,30 +3195,30 @@
         <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -3392,22 +3227,22 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="N12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="O12" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
@@ -3416,25 +3251,13 @@
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="S12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="218">
   <si>
     <t>deviceType</t>
   </si>
@@ -59,304 +59,307 @@
     <t>ban</t>
   </si>
   <si>
-    <t>CDNVOI</t>
-  </si>
-  <si>
-    <t>359205075014813</t>
-  </si>
-  <si>
-    <t>{"zip":"20602","country":"USA","city":"WALDORF","address1":"4303 RYE DR","addressType":"S","state":"MD","addressId":"506324290"}</t>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>089131623103502406</t>
+  </si>
+  <si>
+    <t>{"zip":"64133","country":"USA","city":"KANSAS CITY","address1":"11601 E US HIGHWAY 40 # 40","addressType":"S","state":"MO","addressId":"527622429"}</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>27548666121 27548666121</t>
+  </si>
+  <si>
+    <t>2106061337</t>
+  </si>
+  <si>
+    <t>IPADA216SV1</t>
+  </si>
+  <si>
+    <t>iPad Air 2 16GB</t>
+  </si>
+  <si>
+    <t>iOS8</t>
+  </si>
+  <si>
+    <t>27548666121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+  </si>
+  <si>
+    <t>167647058</t>
+  </si>
+  <si>
+    <t>SMRTPH</t>
+  </si>
+  <si>
+    <t>089234253708733016</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>TEST5IPHONE AUG01</t>
-  </si>
-  <si>
-    <t>2402100539</t>
-  </si>
-  <si>
-    <t>AWAL44GYBSK1</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 4</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>05409669121</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>359205074007537</t>
-  </si>
-  <si>
-    <t>2402100538</t>
-  </si>
-  <si>
-    <t>54409669121</t>
-  </si>
-  <si>
-    <t>SMRTPH</t>
-  </si>
-  <si>
-    <t>089132672704599809</t>
-  </si>
-  <si>
-    <t>2402100473</t>
-  </si>
-  <si>
-    <t>IPH616GBGY1</t>
-  </si>
-  <si>
-    <t>iPhone 6 16GB</t>
-  </si>
-  <si>
-    <t>iOS8</t>
-  </si>
-  <si>
-    <t>79298669121</t>
-  </si>
-  <si>
-    <t>4432447994</t>
-  </si>
-  <si>
-    <t>{"source":"SubDetails","errors":[{"errorMessage":"http://127.0.0.1:10002/services/QueryAccountInfoService: cvc-simple-type 1: element ban value '4432447994' is not a valid instance of type BillingAccountNumberType","errorCode":"Client.705"},{"errorMessage":"Input validation error","errorCode":"Client.705"}]}</t>
-  </si>
-  <si>
-    <t>089476327100627975</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"946401147"}</t>
-  </si>
-  <si>
-    <t>70988485021 70988485021</t>
-  </si>
-  <si>
-    <t>3522565329</t>
-  </si>
-  <si>
-    <t>SPHG93032BK1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S7</t>
+    <t>167647058 167647058</t>
+  </si>
+  <si>
+    <t>2108870631</t>
+  </si>
+  <si>
+    <t>IPH8P64GRY1</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus 64GB</t>
+  </si>
+  <si>
+    <t>iOS11</t>
+  </si>
+  <si>
+    <t>63869289121</t>
+  </si>
+  <si>
+    <t>089234253709519138</t>
+  </si>
+  <si>
+    <t>64345440011 64345440011</t>
+  </si>
+  <si>
+    <t>2108002211</t>
+  </si>
+  <si>
+    <t>IPH8P64GRED1</t>
+  </si>
+  <si>
+    <t>64345440011</t>
+  </si>
+  <si>
+    <t>089575194502126386</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"695656549"}</t>
+  </si>
+  <si>
+    <t>38088928121 38088928121</t>
+  </si>
+  <si>
+    <t>8087770161</t>
+  </si>
+  <si>
+    <t>SPHG960UPR1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9</t>
   </si>
   <si>
     <t>Android</t>
   </si>
   <si>
-    <t>70988485021</t>
-  </si>
-  <si>
-    <t>103341135</t>
-  </si>
-  <si>
-    <t>089131827803757684</t>
-  </si>
-  <si>
-    <t>{"zip":null,"country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"H","state":"IL","addressId":"571917095"}</t>
-  </si>
-  <si>
-    <t>19248074021 19248074021</t>
-  </si>
-  <si>
-    <t>7737936112</t>
-  </si>
-  <si>
-    <t>IPH6128GGLD1</t>
-  </si>
-  <si>
-    <t>iPhone 6 128GB</t>
-  </si>
-  <si>
-    <t>19248074021</t>
-  </si>
-  <si>
-    <t>104404406</t>
-  </si>
-  <si>
-    <t>357333097351187</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"452122279"}</t>
-  </si>
-  <si>
-    <t>76652047121 76652047121</t>
-  </si>
-  <si>
-    <t>4076242569</t>
-  </si>
-  <si>
-    <t>IPHXR64GBLK1</t>
-  </si>
-  <si>
-    <t>iPhone XR 64GB</t>
+    <t>45860295121</t>
+  </si>
+  <si>
+    <t>167651479</t>
+  </si>
+  <si>
+    <t>089872384707496070</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"494609941"}</t>
+  </si>
+  <si>
+    <t>21101918121 21101918121</t>
+  </si>
+  <si>
+    <t>3144500988</t>
+  </si>
+  <si>
+    <t>IPH732GBSIL1</t>
+  </si>
+  <si>
+    <t>iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>iOS10</t>
+  </si>
+  <si>
+    <t>21101918121</t>
+  </si>
+  <si>
+    <t>169356812</t>
+  </si>
+  <si>
+    <t>089234253708808448</t>
+  </si>
+  <si>
+    <t>59026103011 59026103011</t>
+  </si>
+  <si>
+    <t>3143226002</t>
+  </si>
+  <si>
+    <t>59026103011</t>
+  </si>
+  <si>
+    <t>089394868100549237</t>
+  </si>
+  <si>
+    <t>60126103011 60126103011</t>
+  </si>
+  <si>
+    <t>3145036719</t>
+  </si>
+  <si>
+    <t>IPH864GBGRY1</t>
+  </si>
+  <si>
+    <t>iPhone 8 64GB</t>
+  </si>
+  <si>
+    <t>60126103011</t>
+  </si>
+  <si>
+    <t>089394944904821142</t>
+  </si>
+  <si>
+    <t>3144971355</t>
+  </si>
+  <si>
+    <t>IPH864GBGLD1</t>
+  </si>
+  <si>
+    <t>96654992121</t>
+  </si>
+  <si>
+    <t>089768474400627525</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"155413822"}</t>
+  </si>
+  <si>
+    <t>74074931221 74074931221</t>
+  </si>
+  <si>
+    <t>3307741912</t>
+  </si>
+  <si>
+    <t>LGLK460TA1</t>
+  </si>
+  <si>
+    <t>LG G Pad F2 8.0</t>
+  </si>
+  <si>
+    <t>74074931221</t>
+  </si>
+  <si>
+    <t>171655007</t>
+  </si>
+  <si>
+    <t>089466522507902306</t>
+  </si>
+  <si>
+    <t>3306239881</t>
+  </si>
+  <si>
+    <t>LGQ710ALBLK1</t>
+  </si>
+  <si>
+    <t>LG Stylo 4</t>
+  </si>
+  <si>
+    <t>93074931221</t>
+  </si>
+  <si>
+    <t>089191296904227076</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"717556549"}</t>
+  </si>
+  <si>
+    <t>43203155121 43203155121</t>
+  </si>
+  <si>
+    <t>7873086621</t>
+  </si>
+  <si>
+    <t>43203155121</t>
+  </si>
+  <si>
+    <t>171878073</t>
+  </si>
+  <si>
+    <t>089925428109860465</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"296313217"}</t>
+  </si>
+  <si>
+    <t>28268108021 28268108021</t>
+  </si>
+  <si>
+    <t>9196041394</t>
+  </si>
+  <si>
+    <t>SPHN960UBK1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note9</t>
+  </si>
+  <si>
+    <t>28268108021</t>
+  </si>
+  <si>
+    <t>126237170</t>
+  </si>
+  <si>
+    <t>357279090981720</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"733898719"}</t>
+  </si>
+  <si>
+    <t>11184164121 11184164121</t>
+  </si>
+  <si>
+    <t>9788464034</t>
+  </si>
+  <si>
+    <t>IPHXSM64SIL1</t>
+  </si>
+  <si>
+    <t>iPhone XS Max 64GB</t>
   </si>
   <si>
     <t>iOS12</t>
   </si>
   <si>
-    <t>76652047121</t>
-  </si>
-  <si>
-    <t>SUSPENDED</t>
-  </si>
-  <si>
-    <t>118789584</t>
-  </si>
-  <si>
-    <t>089458280007705651</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"442021532"}</t>
-  </si>
-  <si>
-    <t>07079671221 07079671221</t>
-  </si>
-  <si>
-    <t>8596288568</t>
-  </si>
-  <si>
-    <t>LGQ710ALBLK1</t>
-  </si>
-  <si>
-    <t>LG Stylo 4</t>
-  </si>
-  <si>
-    <t>07079671221</t>
-  </si>
-  <si>
-    <t>127188714</t>
-  </si>
-  <si>
-    <t>089594727204215090</t>
-  </si>
-  <si>
-    <t>8594622632</t>
-  </si>
-  <si>
-    <t>RCCI8P64GRY1</t>
-  </si>
-  <si>
-    <t>iPhone 8 Plus 64GB</t>
-  </si>
-  <si>
-    <t>iOS11</t>
-  </si>
-  <si>
-    <t>28079671221</t>
-  </si>
-  <si>
-    <t>089903642505509734</t>
-  </si>
-  <si>
-    <t>8599925683</t>
-  </si>
-  <si>
-    <t>LGX220PWHT1</t>
-  </si>
-  <si>
-    <t>LG Tribute Empire</t>
-  </si>
-  <si>
-    <t>88079671221</t>
-  </si>
-  <si>
-    <t>357261093834155</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"836711420"}</t>
-  </si>
-  <si>
-    <t>14352759121 14352759121</t>
-  </si>
-  <si>
-    <t>9012206891</t>
-  </si>
-  <si>
-    <t>IPXSM512GLD1</t>
-  </si>
-  <si>
-    <t>iPhone XS Max 512GB</t>
-  </si>
-  <si>
-    <t>14352759121</t>
-  </si>
-  <si>
-    <t>118919630</t>
-  </si>
-  <si>
-    <t>089505844006915334</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"605193332"}</t>
-  </si>
-  <si>
-    <t>26292794121 26292794121</t>
-  </si>
-  <si>
-    <t>6025768263</t>
-  </si>
-  <si>
-    <t>SPHG950UBK1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S8</t>
-  </si>
-  <si>
-    <t>26292794121</t>
-  </si>
-  <si>
-    <t>119134450</t>
-  </si>
-  <si>
-    <t>256691840802314816</t>
-  </si>
-  <si>
-    <t>6023189588</t>
-  </si>
-  <si>
-    <t>REC1766BK1</t>
-  </si>
-  <si>
-    <t>Moto E4</t>
-  </si>
-  <si>
-    <t>32380829121</t>
-  </si>
-  <si>
-    <t>089287168807435845</t>
-  </si>
-  <si>
-    <t>36477943121 36477943121</t>
-  </si>
-  <si>
-    <t>6024199519</t>
-  </si>
-  <si>
-    <t>IPH732GBROS1</t>
-  </si>
-  <si>
-    <t>iPhone 7 32GB</t>
-  </si>
-  <si>
-    <t>iOS10</t>
-  </si>
-  <si>
-    <t>36477943121</t>
+    <t>11184164121</t>
+  </si>
+  <si>
+    <t>126245368</t>
+  </si>
+  <si>
+    <t>089276417600300903</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"135214422"}</t>
+  </si>
+  <si>
+    <t>06571911221 06571911221</t>
+  </si>
+  <si>
+    <t>5712410159</t>
+  </si>
+  <si>
+    <t>06571911221</t>
+  </si>
+  <si>
+    <t>126806414</t>
   </si>
   <si>
     <t>aslAccount</t>
@@ -419,154 +422,148 @@
     <t>monthlyRecurringCharge</t>
   </si>
   <si>
+    <t>788.04</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-12-23</t>
-  </si>
-  <si>
-    <t>303.5</t>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>191.69</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>465.35</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>2019-12-28</t>
+  </si>
+  <si>
+    <t>731.68</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>745.42</t>
+  </si>
+  <si>
+    <t>2019-11-07</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>448.09</t>
+  </si>
+  <si>
+    <t>2019-10-17</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>478.04</t>
+  </si>
+  <si>
+    <t>454.64</t>
   </si>
   <si>
     <t>2019-12-18</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>589.48</t>
-  </si>
-  <si>
-    <t>2019-10-17</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>218.35</t>
-  </si>
-  <si>
-    <t>2019-08-29</t>
-  </si>
-  <si>
-    <t>-99</t>
-  </si>
-  <si>
-    <t>2019-12-28</t>
-  </si>
-  <si>
-    <t>2019-08-28</t>
-  </si>
-  <si>
-    <t>502.61</t>
-  </si>
-  <si>
-    <t>496.23</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>59.35</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
+    <t>475.29</t>
+  </si>
+  <si>
+    <t>110.98</t>
+  </si>
+  <si>
+    <t>502.56</t>
   </si>
   <si>
     <t>2019-12-07</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>89.73</t>
-  </si>
-  <si>
-    <t>2019-09-07</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>143.26</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>95.50666666666666</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>72.99</t>
-  </si>
-  <si>
-    <t>360.54</t>
-  </si>
-  <si>
-    <t>315.46</t>
-  </si>
-  <si>
-    <t>145.48</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1189.54</t>
-  </si>
-  <si>
-    <t>132.81</t>
-  </si>
-  <si>
-    <t>2019-12-13</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>96.04</t>
-  </si>
-  <si>
-    <t>2019-08-26</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>555.04</t>
-  </si>
-  <si>
-    <t>475.12</t>
-  </si>
-  <si>
-    <t>36.1</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>207.97</t>
-  </si>
-  <si>
-    <t>136.37</t>
-  </si>
-  <si>
-    <t>1726.37</t>
-  </si>
-  <si>
-    <t>1590.0</t>
-  </si>
-  <si>
-    <t>2019-12-22</t>
-  </si>
-  <si>
-    <t>1588.0</t>
-  </si>
-  <si>
-    <t>2019-12-04</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>113526468</t>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>119.62</t>
+  </si>
+  <si>
+    <t>2019-06-07</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>330.84</t>
+  </si>
+  <si>
+    <t>94.65</t>
+  </si>
+  <si>
+    <t>2019-06-19</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>435.36</t>
+  </si>
+  <si>
+    <t>122.19</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>91.99</t>
+  </si>
+  <si>
+    <t>329.48</t>
+  </si>
+  <si>
+    <t>93.39</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>paymentType</t>
@@ -605,235 +602,73 @@
     <t>autopayInd</t>
   </si>
   <si>
-    <t>AUTOPAY</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>MASTERCARD</t>
-  </si>
-  <si>
-    <t>CREDIT_CARD</t>
-  </si>
-  <si>
-    <t>1200776740</t>
-  </si>
-  <si>
-    <t>6778</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>1200774166</t>
-  </si>
-  <si>
-    <t>3627</t>
+    <t>paymentMethodToken</t>
+  </si>
+  <si>
+    <t>isAutopay</t>
+  </si>
+  <si>
+    <t>isPrimary</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>securityCode</t>
+  </si>
+  <si>
+    <t>isPinlessDebit</t>
+  </si>
+  <si>
+    <t>isCardAOOwned</t>
+  </si>
+  <si>
+    <t>Nkxwr5VYvr7Aabcvth1XCOUFCVfOHNbGSKHK</t>
+  </si>
+  <si>
+    <t>V12KHX6JPFRY0123</t>
   </si>
   <si>
     <t>CHECKING_ACCOUNT</t>
   </si>
   <si>
-    <t>1200774223</t>
-  </si>
-  <si>
-    <t>3944</t>
-  </si>
-  <si>
-    <t>1200775502</t>
-  </si>
-  <si>
-    <t>4740</t>
-  </si>
-  <si>
-    <t>1200774167</t>
-  </si>
-  <si>
-    <t>6011</t>
-  </si>
-  <si>
-    <t>DISCOVER</t>
-  </si>
-  <si>
-    <t>1200776904</t>
-  </si>
-  <si>
-    <t>DC*6011</t>
-  </si>
-  <si>
-    <t>uPq68I8MUyAkqBtZ6UjF2GAHj0z68hwJqjxR</t>
-  </si>
-  <si>
-    <t>09/22</t>
-  </si>
-  <si>
-    <t>paymentMethodToken</t>
-  </si>
-  <si>
-    <t>isAutopay</t>
-  </si>
-  <si>
-    <t>isPrimary</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>securityCode</t>
-  </si>
-  <si>
-    <t>isPinlessDebit</t>
-  </si>
-  <si>
-    <t>isCardAOOwned</t>
-  </si>
-  <si>
-    <t>XTugkM6M5kyPWC3XILlgTuyCQ7E1bl6cPgKi</t>
-  </si>
-  <si>
-    <t>TNWUG6IAJSGH4113</t>
-  </si>
-  <si>
-    <t>4113</t>
-  </si>
-  <si>
-    <t>01/23</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>Checking-*0123</t>
+  </si>
+  <si>
+    <t>2109, Fox Drive</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
     <t>61820</t>
   </si>
   <si>
     <t>undefined</t>
-  </si>
-  <si>
-    <t>mbLOwywdmmAKgd5WaCUsup5PU25HH7sYifGU</t>
-  </si>
-  <si>
-    <t>12/21</t>
-  </si>
-  <si>
-    <t>Visa*4113</t>
-  </si>
-  <si>
-    <t>2109 Fox Dr</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>q6OgjltammSVgedVOM4Yyo76v8wUGHUDK1uu</t>
-  </si>
-  <si>
-    <t>HGRD4IT5L1TR7894</t>
-  </si>
-  <si>
-    <t>7894</t>
-  </si>
-  <si>
-    <t>02/22</t>
-  </si>
-  <si>
-    <t>Mastercard-*7894</t>
-  </si>
-  <si>
-    <t>66223</t>
-  </si>
-  <si>
-    <t>uPq68I8DsEwf9H6BaDHFS6qCAITw8RBy6tjx</t>
-  </si>
-  <si>
-    <t>X9XP878DMYYI1881</t>
-  </si>
-  <si>
-    <t>1881</t>
-  </si>
-  <si>
-    <t>Visa-*1881</t>
-  </si>
-  <si>
-    <t>2109, Fox Drive</t>
-  </si>
-  <si>
-    <t>WICRHQSZ7AE46011</t>
-  </si>
-  <si>
-    <t>113526468 113526468</t>
-  </si>
-  <si>
-    <t>11504 FLOYD DR APT 2202</t>
-  </si>
-  <si>
-    <t>APT 2202</t>
-  </si>
-  <si>
-    <t>OVERLAND PARK</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>66210</t>
-  </si>
-  <si>
-    <t>uPq68I8RO7cBu9uULv3qkhbMd7k8kcWp9Nx9</t>
-  </si>
-  <si>
-    <t>XUQVR5W63C7M4376</t>
-  </si>
-  <si>
-    <t>AMEX</t>
-  </si>
-  <si>
-    <t>4376</t>
-  </si>
-  <si>
-    <t>01/22</t>
-  </si>
-  <si>
-    <t>Amex*4376</t>
-  </si>
-  <si>
-    <t>BqsCUyB29N2YaXBXiVF8VOv4SJA3Mw2D6j4g</t>
-  </si>
-  <si>
-    <t>P7GHS5ZHLCKX8431</t>
-  </si>
-  <si>
-    <t>8431</t>
-  </si>
-  <si>
-    <t>04/21</t>
-  </si>
-  <si>
-    <t>Amex-*8431</t>
-  </si>
-  <si>
-    <t>66211</t>
   </si>
 </sst>
 </file>
@@ -878,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -966,15 +801,15 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -983,238 +818,274 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
       <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>70</v>
@@ -1223,42 +1094,42 @@
         <v>71</v>
       </c>
       <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
-      </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1270,39 +1141,39 @@
         <v>78</v>
       </c>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1314,27 +1185,27 @@
         <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
         <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -1343,7 +1214,7 @@
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
@@ -1352,89 +1223,89 @@
         <v>89</v>
       </c>
       <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
         <v>90</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>95</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>96</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
         <v>98</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
         <v>99</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1446,66 +1317,66 @@
         <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
         <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1523,64 +1394,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -1588,49 +1459,49 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -1648,54 +1519,54 @@
         <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="P3" t="s">
         <v>24</v>
@@ -1713,54 +1584,54 @@
         <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -1778,72 +1649,72 @@
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="T5" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1851,111 +1722,111 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="P7" t="s">
         <v>24</v>
@@ -1973,72 +1844,72 @@
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
         <v>165</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>166</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>167</v>
       </c>
-      <c r="L8" t="s">
-        <v>166</v>
-      </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="N8" t="s">
         <v>169</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -2046,129 +1917,64 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N9" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="O9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="T9" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" t="s">
-        <v>180</v>
-      </c>
-      <c r="N10" t="s">
-        <v>181</v>
-      </c>
-      <c r="O10" t="s">
-        <v>182</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +1984,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2186,40 +1992,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>192</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>193</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>194</v>
-      </c>
-      <c r="L1" t="s">
-        <v>195</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -2263,7 +2069,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -2304,30 +2110,30 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -2345,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -2386,30 +2192,30 @@
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -2427,30 +2233,30 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -2468,30 +2274,30 @@
         <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2509,30 +2315,30 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
@@ -2550,48 +2356,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2366,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2612,55 +2377,55 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="O1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="R1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
@@ -2723,184 +2488,184 @@
         <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="N4" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="O4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -2959,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -3018,7 +2783,7 @@
         <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -3077,184 +2842,7 @@
         <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" t="s">
-        <v>256</v>
-      </c>
-      <c r="L10" t="s">
-        <v>257</v>
-      </c>
-      <c r="M10" t="s">
-        <v>258</v>
-      </c>
-      <c r="N10" t="s">
-        <v>259</v>
-      </c>
-      <c r="O10" t="s">
-        <v>260</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>255</v>
-      </c>
-      <c r="K11" t="s">
-        <v>256</v>
-      </c>
-      <c r="L11" t="s">
-        <v>257</v>
-      </c>
-      <c r="M11" t="s">
-        <v>258</v>
-      </c>
-      <c r="N11" t="s">
-        <v>259</v>
-      </c>
-      <c r="O11" t="s">
-        <v>260</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" t="s">
-        <v>234</v>
-      </c>
-      <c r="N12" t="s">
-        <v>234</v>
-      </c>
-      <c r="O12" t="s">
-        <v>272</v>
-      </c>
-      <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s">
-        <v>236</v>
-      </c>
-      <c r="S12" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -2431,7 +2431,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
         <v>24</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="257">
   <si>
     <t>deviceType</t>
   </si>
@@ -59,6 +59,9 @@
     <t>ban</t>
   </si>
   <si>
+    <t>smUser</t>
+  </si>
+  <si>
     <t>TABLET</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>167647058</t>
   </si>
   <si>
+    <t>ONREG-19126</t>
+  </si>
+  <si>
     <t>SMRTPH</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
     <t>167651479</t>
   </si>
   <si>
+    <t>ONREG-19127</t>
+  </si>
+  <si>
     <t>089872384707496070</t>
   </si>
   <si>
@@ -194,6 +203,9 @@
     <t>169356812</t>
   </si>
   <si>
+    <t>ONREG-17643</t>
+  </si>
+  <si>
     <t>089234253708808448</t>
   </si>
   <si>
@@ -260,6 +272,9 @@
     <t>171655007</t>
   </si>
   <si>
+    <t>ONREG-17765</t>
+  </si>
+  <si>
     <t>089466522507902306</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
     <t>171878073</t>
   </si>
   <si>
+    <t>ONREG-19129</t>
+  </si>
+  <si>
     <t>089925428109860465</t>
   </si>
   <si>
@@ -317,6 +335,9 @@
     <t>126237170</t>
   </si>
   <si>
+    <t>ONREG-19067</t>
+  </si>
+  <si>
     <t>357279090981720</t>
   </si>
   <si>
@@ -344,6 +365,9 @@
     <t>126245368</t>
   </si>
   <si>
+    <t>ONREG-19039</t>
+  </si>
+  <si>
     <t>089276417600300903</t>
   </si>
   <si>
@@ -362,6 +386,69 @@
     <t>126806414</t>
   </si>
   <si>
+    <t>ONREG-18564</t>
+  </si>
+  <si>
+    <t>CDNVOI</t>
+  </si>
+  <si>
+    <t>359205075014813</t>
+  </si>
+  <si>
+    <t>{"zip":"20602","country":"USA","city":"WALDORF","address1":"4303 RYE DR","addressType":"S","state":"MD","addressId":"506324290"}</t>
+  </si>
+  <si>
+    <t>TEST5IPHONE AUG01</t>
+  </si>
+  <si>
+    <t>2402100539</t>
+  </si>
+  <si>
+    <t>AWAL44GYBSK1</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>05409669121</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>434349902</t>
+  </si>
+  <si>
+    <t>AugUser040</t>
+  </si>
+  <si>
+    <t>359205074007537</t>
+  </si>
+  <si>
+    <t>2402100538</t>
+  </si>
+  <si>
+    <t>54409669121</t>
+  </si>
+  <si>
+    <t>089132672704599809</t>
+  </si>
+  <si>
+    <t>2402100473</t>
+  </si>
+  <si>
+    <t>IPH616GBGY1</t>
+  </si>
+  <si>
+    <t>iPhone 6 16GB</t>
+  </si>
+  <si>
+    <t>79298669121</t>
+  </si>
+  <si>
     <t>aslAccount</t>
   </si>
   <si>
@@ -431,7 +518,7 @@
     <t>2019-12-03</t>
   </si>
   <si>
-    <t>-6</t>
+    <t>-7</t>
   </si>
   <si>
     <t>2020-01-02</t>
@@ -452,7 +539,7 @@
     <t>2019-11-29</t>
   </si>
   <si>
-    <t>-10</t>
+    <t>-11</t>
   </si>
   <si>
     <t>2019-12-28</t>
@@ -473,7 +560,7 @@
     <t>2019-11-07</t>
   </si>
   <si>
-    <t>-32</t>
+    <t>-33</t>
   </si>
   <si>
     <t>448.09</t>
@@ -494,15 +581,18 @@
     <t>2019-12-18</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>59.35</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>59.35</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
     <t>475.29</t>
   </si>
   <si>
@@ -515,7 +605,7 @@
     <t>2019-12-07</t>
   </si>
   <si>
-    <t>-2</t>
+    <t>-3</t>
   </si>
   <si>
     <t>2020-01-06</t>
@@ -566,6 +656,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
     <t>paymentType</t>
   </si>
   <si>
@@ -669,6 +765,27 @@
   </si>
   <si>
     <t>undefined</t>
+  </si>
+  <si>
+    <t>XTugkM6M5kyPWC3XILlgTuyCQ7E1bl6cPgKi</t>
+  </si>
+  <si>
+    <t>TNWUG6IAJSGH4113</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>4113</t>
+  </si>
+  <si>
+    <t>01/23</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -713,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -762,621 +879,807 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
         <v>84</v>
       </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
         <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1394,64 +1697,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="P1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="Q1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="R1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="S1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="T1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -1459,522 +1762,587 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L3" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="N5" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="R5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="S5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="T5" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="U5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="N6" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="O6" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="O7" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" t="s">
         <v>165</v>
       </c>
-      <c r="K8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N8" t="s">
-        <v>169</v>
-      </c>
-      <c r="O8" t="s">
-        <v>177</v>
-      </c>
-      <c r="P8" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>136</v>
-      </c>
       <c r="R8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="S8" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="T8" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="U8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" t="s">
+        <v>212</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>165</v>
       </c>
-      <c r="K9" t="s">
-        <v>166</v>
-      </c>
-      <c r="L9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O9" t="s">
-        <v>182</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" t="s">
-        <v>114</v>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +2352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1992,40 +2360,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="L1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -2033,330 +2401,371 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2775,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2377,55 +2786,55 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="P1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="Q1" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="R1" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
@@ -2433,474 +2842,533 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="M4" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="O4" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S9" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" t="s">
+        <v>249</v>
+      </c>
+      <c r="S10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -6,16 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="subscriberlist" r:id="rId3" sheetId="1"/>
+    <sheet name="subscribersList" r:id="rId3" sheetId="1"/>
     <sheet name="financial-status" r:id="rId4" sheetId="2"/>
     <sheet name="future-payments" r:id="rId5" sheetId="3"/>
     <sheet name="payment methods" r:id="rId6" sheetId="4"/>
+    <sheet name="mac-adjustment" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="403">
   <si>
     <t>deviceType</t>
   </si>
@@ -62,346 +63,469 @@
     <t>smUser</t>
   </si>
   <si>
+    <t>hppttId</t>
+  </si>
+  <si>
+    <t>SMRTPH</t>
+  </si>
+  <si>
+    <t>089594804005847065</t>
+  </si>
+  <si>
+    <t>{"zip":"90006","country":"USA","city":"LOS ANGELES","address1":"2390 W PICO BLVD","addressType":"S","state":"CA","addressId":"921662429"}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>27905465121 27905465121</t>
+  </si>
+  <si>
+    <t>5126898236</t>
+  </si>
+  <si>
+    <t>IPH8P64GRY1</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus 64GB</t>
+  </si>
+  <si>
+    <t>iOS11</t>
+  </si>
+  <si>
+    <t>27905465121</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>100439175</t>
+  </si>
+  <si>
+    <t>ONREG-17921</t>
+  </si>
+  <si>
+    <t>089234279305260120</t>
+  </si>
+  <si>
+    <t>8475711011</t>
+  </si>
+  <si>
+    <t>RECI8P64GLD1</t>
+  </si>
+  <si>
+    <t>40202069121</t>
+  </si>
+  <si>
+    <t>089790951202184498</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"780669169"}</t>
+  </si>
+  <si>
+    <t>100567017 100567017</t>
+  </si>
+  <si>
+    <t>8065841330</t>
+  </si>
+  <si>
+    <t>SPHN950UBK1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note8</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>48072222011</t>
+  </si>
+  <si>
+    <t>100567017</t>
+  </si>
+  <si>
+    <t>ONREG-13083</t>
+  </si>
+  <si>
+    <t>089925351300267657</t>
+  </si>
+  <si>
+    <t>93172222011 93172222011</t>
+  </si>
+  <si>
+    <t>8066838761</t>
+  </si>
+  <si>
+    <t>SPHN960UPR1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note9</t>
+  </si>
+  <si>
+    <t>93172222011</t>
+  </si>
+  <si>
+    <t>089556276106490488</t>
+  </si>
+  <si>
+    <t>2173728077</t>
+  </si>
+  <si>
+    <t>IPH6S32GBGY1</t>
+  </si>
+  <si>
+    <t>iPhone 6S 32GB</t>
+  </si>
+  <si>
+    <t>iOS9</t>
+  </si>
+  <si>
+    <t>98690769121</t>
+  </si>
+  <si>
+    <t>089131648601070631</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"865169800"}</t>
+  </si>
+  <si>
+    <t>07782833121 07782833121</t>
+  </si>
+  <si>
+    <t>8456494944</t>
+  </si>
+  <si>
+    <t>IPH616GBGLD1</t>
+  </si>
+  <si>
+    <t>iPhone 6 16GB</t>
+  </si>
+  <si>
+    <t>iOS8</t>
+  </si>
+  <si>
+    <t>07782833121</t>
+  </si>
+  <si>
+    <t>101487374</t>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+  </si>
+  <si>
+    <t>ONREG-17938</t>
+  </si>
+  <si>
+    <t>356167094142210</t>
+  </si>
+  <si>
+    <t>24663568021 24663568021</t>
+  </si>
+  <si>
+    <t>9142821284</t>
+  </si>
+  <si>
+    <t>IPHXS256SIL1</t>
+  </si>
+  <si>
+    <t>iPhone XS 256GB</t>
+  </si>
+  <si>
+    <t>iOS12</t>
+  </si>
+  <si>
+    <t>24663568021</t>
+  </si>
+  <si>
+    <t>089502951100467828</t>
+  </si>
+  <si>
+    <t>33549643121 33549643121</t>
+  </si>
+  <si>
+    <t>9174749365</t>
+  </si>
+  <si>
+    <t>RECG93532SL1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S7 Edge</t>
+  </si>
+  <si>
+    <t>33549643121</t>
+  </si>
+  <si>
+    <t>089872000703578001</t>
+  </si>
+  <si>
+    <t>83334933121 83334933121</t>
+  </si>
+  <si>
+    <t>8456494943</t>
+  </si>
+  <si>
+    <t>IPH732GBROS1</t>
+  </si>
+  <si>
+    <t>iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>iOS10</t>
+  </si>
+  <si>
+    <t>83334933121</t>
+  </si>
+  <si>
+    <t>NODTVC</t>
+  </si>
+  <si>
+    <t>8453138395</t>
+  </si>
+  <si>
+    <t>ASPANMBGN2</t>
+  </si>
+  <si>
+    <t>Airspan AU544</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>97835069121</t>
+  </si>
+  <si>
+    <t>353068100913094</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"429095317"}</t>
+  </si>
+  <si>
+    <t>27032815021 27032815021</t>
+  </si>
+  <si>
+    <t>7042089992</t>
+  </si>
+  <si>
+    <t>IPHXR64GWHT1</t>
+  </si>
+  <si>
+    <t>iPhone XR 64GB</t>
+  </si>
+  <si>
+    <t>27032815021</t>
+  </si>
+  <si>
+    <t>101828015</t>
+  </si>
+  <si>
+    <t>ONREG-13431</t>
+  </si>
+  <si>
+    <t>089790951205509472</t>
+  </si>
+  <si>
+    <t>51896322011 51896322011</t>
+  </si>
+  <si>
+    <t>8043040743</t>
+  </si>
+  <si>
+    <t>SPHN950UBU1</t>
+  </si>
+  <si>
+    <t>51896322011</t>
+  </si>
+  <si>
+    <t>089575194500005716</t>
+  </si>
+  <si>
+    <t>55896322011 55896322011</t>
+  </si>
+  <si>
+    <t>7276924254</t>
+  </si>
+  <si>
+    <t>SPHG960UBK1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9</t>
+  </si>
+  <si>
+    <t>55896322011</t>
+  </si>
+  <si>
+    <t>353066105212090</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"967283521"}</t>
+  </si>
+  <si>
+    <t>37538147121 37538147121</t>
+  </si>
+  <si>
+    <t>7035976590</t>
+  </si>
+  <si>
+    <t>IPHXR64GCRL1</t>
+  </si>
+  <si>
+    <t>38792341221</t>
+  </si>
+  <si>
+    <t>103385568</t>
+  </si>
+  <si>
+    <t>ONREG-17964</t>
+  </si>
+  <si>
+    <t>353071101131518</t>
+  </si>
+  <si>
+    <t>7032310715</t>
+  </si>
+  <si>
+    <t>IPHXR64GRED1</t>
+  </si>
+  <si>
+    <t>49792341221</t>
+  </si>
+  <si>
+    <t>353057105055217</t>
+  </si>
+  <si>
+    <t>7038990862</t>
+  </si>
+  <si>
+    <t>77792341221</t>
+  </si>
+  <si>
+    <t>353070100887765</t>
+  </si>
+  <si>
+    <t>7035930425</t>
+  </si>
+  <si>
+    <t>98792341221</t>
+  </si>
+  <si>
+    <t>089287143200202760</t>
+  </si>
+  <si>
+    <t>{"zip":"12604","country":"USA","city":"POUGHKEEPSIE","address1":"124 RAYMOND AVE","addressType":"S","state":"NY","addressId":"641852429"}</t>
+  </si>
+  <si>
+    <t>36986784021 36986784021</t>
+  </si>
+  <si>
+    <t>7606127133</t>
+  </si>
+  <si>
+    <t>IPH732GBGLD1</t>
+  </si>
+  <si>
+    <t>00538669121</t>
+  </si>
+  <si>
+    <t>105805094</t>
+  </si>
+  <si>
+    <t>ONREG-17855</t>
+  </si>
+  <si>
     <t>TABLET</t>
   </si>
   <si>
-    <t>089131623103502406</t>
-  </si>
-  <si>
-    <t>{"zip":"64133","country":"USA","city":"KANSAS CITY","address1":"11601 E US HIGHWAY 40 # 40","addressType":"S","state":"MO","addressId":"527622429"}</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>27548666121 27548666121</t>
-  </si>
-  <si>
-    <t>2106061337</t>
-  </si>
-  <si>
-    <t>IPADA216SV1</t>
-  </si>
-  <si>
-    <t>iPad Air 2 16GB</t>
-  </si>
-  <si>
-    <t>iOS8</t>
-  </si>
-  <si>
-    <t>27548666121</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SUSPENDED</t>
-  </si>
-  <si>
-    <t>167647058</t>
-  </si>
-  <si>
-    <t>ONREG-19126</t>
-  </si>
-  <si>
-    <t>SMRTPH</t>
-  </si>
-  <si>
-    <t>089234253708733016</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>167647058 167647058</t>
-  </si>
-  <si>
-    <t>2108870631</t>
-  </si>
-  <si>
-    <t>IPH8P64GRY1</t>
-  </si>
-  <si>
-    <t>iPhone 8 Plus 64GB</t>
-  </si>
-  <si>
-    <t>iOS11</t>
-  </si>
-  <si>
-    <t>63869289121</t>
-  </si>
-  <si>
-    <t>089234253709519138</t>
-  </si>
-  <si>
-    <t>64345440011 64345440011</t>
-  </si>
-  <si>
-    <t>2108002211</t>
-  </si>
-  <si>
-    <t>IPH8P64GRED1</t>
-  </si>
-  <si>
-    <t>64345440011</t>
-  </si>
-  <si>
-    <t>089575194502126386</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"695656549"}</t>
-  </si>
-  <si>
-    <t>38088928121 38088928121</t>
-  </si>
-  <si>
-    <t>8087770161</t>
-  </si>
-  <si>
-    <t>SPHG960UPR1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S9</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>45860295121</t>
-  </si>
-  <si>
-    <t>167651479</t>
-  </si>
-  <si>
-    <t>ONREG-19127</t>
-  </si>
-  <si>
-    <t>089872384707496070</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"494609941"}</t>
-  </si>
-  <si>
-    <t>21101918121 21101918121</t>
-  </si>
-  <si>
-    <t>3144500988</t>
-  </si>
-  <si>
-    <t>IPH732GBSIL1</t>
-  </si>
-  <si>
-    <t>iPhone 7 32GB</t>
-  </si>
-  <si>
-    <t>iOS10</t>
-  </si>
-  <si>
-    <t>21101918121</t>
-  </si>
-  <si>
-    <t>169356812</t>
-  </si>
-  <si>
-    <t>ONREG-17643</t>
-  </si>
-  <si>
-    <t>089234253708808448</t>
-  </si>
-  <si>
-    <t>59026103011 59026103011</t>
-  </si>
-  <si>
-    <t>3143226002</t>
-  </si>
-  <si>
-    <t>59026103011</t>
-  </si>
-  <si>
-    <t>089394868100549237</t>
-  </si>
-  <si>
-    <t>60126103011 60126103011</t>
-  </si>
-  <si>
-    <t>3145036719</t>
-  </si>
-  <si>
-    <t>IPH864GBGRY1</t>
-  </si>
-  <si>
-    <t>iPhone 8 64GB</t>
-  </si>
-  <si>
-    <t>60126103011</t>
-  </si>
-  <si>
-    <t>089394944904821142</t>
-  </si>
-  <si>
-    <t>3144971355</t>
-  </si>
-  <si>
-    <t>IPH864GBGLD1</t>
-  </si>
-  <si>
-    <t>96654992121</t>
-  </si>
-  <si>
-    <t>089768474400627525</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"155413822"}</t>
-  </si>
-  <si>
-    <t>74074931221 74074931221</t>
-  </si>
-  <si>
-    <t>3307741912</t>
-  </si>
-  <si>
-    <t>LGLK460TA1</t>
-  </si>
-  <si>
-    <t>LG G Pad F2 8.0</t>
-  </si>
-  <si>
-    <t>74074931221</t>
-  </si>
-  <si>
-    <t>171655007</t>
-  </si>
-  <si>
-    <t>ONREG-17765</t>
-  </si>
-  <si>
-    <t>089466522507902306</t>
-  </si>
-  <si>
-    <t>3306239881</t>
-  </si>
-  <si>
-    <t>LGQ710ALBLK1</t>
-  </si>
-  <si>
-    <t>LG Stylo 4</t>
-  </si>
-  <si>
-    <t>93074931221</t>
-  </si>
-  <si>
-    <t>089191296904227076</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"717556549"}</t>
-  </si>
-  <si>
-    <t>43203155121 43203155121</t>
-  </si>
-  <si>
-    <t>7873086621</t>
-  </si>
-  <si>
-    <t>43203155121</t>
-  </si>
-  <si>
-    <t>171878073</t>
-  </si>
-  <si>
-    <t>ONREG-19129</t>
-  </si>
-  <si>
-    <t>089925428109860465</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"296313217"}</t>
-  </si>
-  <si>
-    <t>28268108021 28268108021</t>
-  </si>
-  <si>
-    <t>9196041394</t>
-  </si>
-  <si>
-    <t>SPHN960UBK1</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Note9</t>
-  </si>
-  <si>
-    <t>28268108021</t>
-  </si>
-  <si>
-    <t>126237170</t>
-  </si>
-  <si>
-    <t>ONREG-19067</t>
-  </si>
-  <si>
-    <t>357279090981720</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"733898719"}</t>
-  </si>
-  <si>
-    <t>11184164121 11184164121</t>
-  </si>
-  <si>
-    <t>9788464034</t>
-  </si>
-  <si>
-    <t>IPHXSM64SIL1</t>
-  </si>
-  <si>
-    <t>iPhone XS Max 64GB</t>
-  </si>
-  <si>
-    <t>iOS12</t>
-  </si>
-  <si>
-    <t>11184164121</t>
-  </si>
-  <si>
-    <t>126245368</t>
-  </si>
-  <si>
-    <t>ONREG-19039</t>
-  </si>
-  <si>
-    <t>089276417600300903</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"135214422"}</t>
-  </si>
-  <si>
-    <t>06571911221 06571911221</t>
-  </si>
-  <si>
-    <t>5712410159</t>
-  </si>
-  <si>
-    <t>06571911221</t>
-  </si>
-  <si>
-    <t>126806414</t>
-  </si>
-  <si>
-    <t>ONREG-18564</t>
+    <t>089130189501139539</t>
+  </si>
+  <si>
+    <t>7604091734</t>
+  </si>
+  <si>
+    <t>IPDPRO128GD1</t>
+  </si>
+  <si>
+    <t>iPad Pro 128GB</t>
+  </si>
+  <si>
+    <t>10538669121</t>
+  </si>
+  <si>
+    <t>089594676001316438</t>
+  </si>
+  <si>
+    <t>7876717141</t>
+  </si>
+  <si>
+    <t>IPH8P64GLD1</t>
+  </si>
+  <si>
+    <t>36986784021</t>
   </si>
   <si>
     <t>CDNVOI</t>
   </si>
   <si>
-    <t>359205075014813</t>
-  </si>
-  <si>
-    <t>{"zip":"20602","country":"USA","city":"WALDORF","address1":"4303 RYE DR","addressType":"S","state":"MD","addressId":"506324290"}</t>
-  </si>
-  <si>
-    <t>TEST5IPHONE AUG01</t>
-  </si>
-  <si>
-    <t>2402100539</t>
+    <t>089889741600219160</t>
+  </si>
+  <si>
+    <t>4194663433</t>
+  </si>
+  <si>
+    <t>AWAL38GDPBK1</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 3</t>
+  </si>
+  <si>
+    <t>78254219121</t>
+  </si>
+  <si>
+    <t>089236071309971009</t>
+  </si>
+  <si>
+    <t>2817887044</t>
+  </si>
+  <si>
+    <t>IPHX64GBGRY1</t>
+  </si>
+  <si>
+    <t>iPhone X 64GB</t>
+  </si>
+  <si>
+    <t>88450769121</t>
+  </si>
+  <si>
+    <t>089191040905609334</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"348377822"}</t>
+  </si>
+  <si>
+    <t>45507149121 45507149121</t>
+  </si>
+  <si>
+    <t>6038201072</t>
+  </si>
+  <si>
+    <t>45507149121</t>
+  </si>
+  <si>
+    <t>108362572</t>
+  </si>
+  <si>
+    <t>ONREG-17891</t>
+  </si>
+  <si>
+    <t>358671090187424</t>
+  </si>
+  <si>
+    <t>6034382536</t>
   </si>
   <si>
     <t>AWAL44GYBSK1</t>
@@ -410,43 +534,112 @@
     <t>Apple Watch Series 4</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>05409669121</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>AugUser040</t>
-  </si>
-  <si>
-    <t>359205074007537</t>
-  </si>
-  <si>
-    <t>2402100538</t>
-  </si>
-  <si>
-    <t>54409669121</t>
-  </si>
-  <si>
-    <t>089132672704599809</t>
-  </si>
-  <si>
-    <t>2402100473</t>
-  </si>
-  <si>
-    <t>IPH616GBGY1</t>
-  </si>
-  <si>
-    <t>iPhone 6 16GB</t>
-  </si>
-  <si>
-    <t>79298669121</t>
+    <t>47149241221</t>
+  </si>
+  <si>
+    <t>089609907803552562</t>
+  </si>
+  <si>
+    <t>6034382046</t>
+  </si>
+  <si>
+    <t>IPH5S16BFGY1</t>
+  </si>
+  <si>
+    <t>BYOFD iPhone 5S 16GB</t>
+  </si>
+  <si>
+    <t>iOS7</t>
+  </si>
+  <si>
+    <t>62739241221</t>
+  </si>
+  <si>
+    <t>357269096187703</t>
+  </si>
+  <si>
+    <t>6032620197</t>
+  </si>
+  <si>
+    <t>IPXSM256SIL1</t>
+  </si>
+  <si>
+    <t>iPhone XS Max 256GB</t>
+  </si>
+  <si>
+    <t>63392068021</t>
+  </si>
+  <si>
+    <t>DATGEN</t>
+  </si>
+  <si>
+    <t>089910887303486489</t>
+  </si>
+  <si>
+    <t>6034384696</t>
+  </si>
+  <si>
+    <t>HMHAS15OBK1</t>
+  </si>
+  <si>
+    <t>Sprint Drive OBDII</t>
+  </si>
+  <si>
+    <t>81759811221</t>
+  </si>
+  <si>
+    <t>089191220109900633</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"739314381"}</t>
+  </si>
+  <si>
+    <t>25406251221 25406251221</t>
+  </si>
+  <si>
+    <t>2192926352</t>
+  </si>
+  <si>
+    <t>IPH8P64GSIL1</t>
+  </si>
+  <si>
+    <t>42473799121</t>
+  </si>
+  <si>
+    <t>113556403</t>
+  </si>
+  <si>
+    <t>ONREG-19823</t>
+  </si>
+  <si>
+    <t>089693876102396257</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"538061121"}</t>
+  </si>
+  <si>
+    <t>88250411011 88250411011</t>
+  </si>
+  <si>
+    <t>9739303299</t>
+  </si>
+  <si>
+    <t>SPHG965UBK1</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9+</t>
+  </si>
+  <si>
+    <t>88250411011</t>
+  </si>
+  <si>
+    <t>136524851</t>
+  </si>
+  <si>
+    <t>ONREG-13182</t>
+  </si>
+  <si>
+    <t>9739303299@SPRINT.COM</t>
   </si>
   <si>
     <t>aslAccount</t>
@@ -509,12 +702,18 @@
     <t>monthlyRecurringCharge</t>
   </si>
   <si>
-    <t>788.04</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>509.4</t>
+  </si>
+  <si>
+    <t>-410.56</t>
+  </si>
+  <si>
+    <t>919.96</t>
+  </si>
+  <si>
     <t>2019-12-03</t>
   </si>
   <si>
@@ -524,16 +723,112 @@
     <t>2020-01-02</t>
   </si>
   <si>
-    <t>191.69</t>
-  </si>
-  <si>
-    <t>2019-06-03</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>465.35</t>
+    <t>410.56</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>635.25</t>
+  </si>
+  <si>
+    <t>-895.65</t>
+  </si>
+  <si>
+    <t>1530.9</t>
+  </si>
+  <si>
+    <t>407.54</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1873.68</t>
+  </si>
+  <si>
+    <t>1735.86</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2019-12-22</t>
+  </si>
+  <si>
+    <t>79.64</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>778.93</t>
+  </si>
+  <si>
+    <t>924.8</t>
+  </si>
+  <si>
+    <t>1389.0</t>
+  </si>
+  <si>
+    <t>1534.87</t>
+  </si>
+  <si>
+    <t>610.07</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>64.91083333333333</t>
+  </si>
+  <si>
+    <t>1245.0</t>
+  </si>
+  <si>
+    <t>198.97</t>
+  </si>
+  <si>
+    <t>980.24</t>
+  </si>
+  <si>
+    <t>-676.41</t>
+  </si>
+  <si>
+    <t>1656.65</t>
+  </si>
+  <si>
+    <t>676.41</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>2552.85</t>
+  </si>
+  <si>
+    <t>1732.64</t>
+  </si>
+  <si>
+    <t>359.92</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>1113.25</t>
   </si>
   <si>
     <t>2019-11-29</t>
@@ -545,157 +840,151 @@
     <t>2019-12-28</t>
   </si>
   <si>
-    <t>731.68</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>745.42</t>
-  </si>
-  <si>
-    <t>2019-11-07</t>
-  </si>
-  <si>
-    <t>-33</t>
-  </si>
-  <si>
-    <t>448.09</t>
-  </si>
-  <si>
-    <t>2019-10-17</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>478.04</t>
-  </si>
-  <si>
-    <t>454.64</t>
-  </si>
-  <si>
-    <t>2019-12-18</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>59.35</t>
-  </si>
-  <si>
-    <t>2019-04-26</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>475.29</t>
-  </si>
-  <si>
-    <t>110.98</t>
-  </si>
-  <si>
-    <t>502.56</t>
-  </si>
-  <si>
-    <t>2019-12-07</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>119.62</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>330.84</t>
-  </si>
-  <si>
-    <t>94.65</t>
-  </si>
-  <si>
-    <t>2019-06-19</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>435.36</t>
-  </si>
-  <si>
-    <t>122.19</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>91.99</t>
-  </si>
-  <si>
-    <t>329.48</t>
-  </si>
-  <si>
-    <t>93.39</t>
-  </si>
-  <si>
-    <t>2019-05-20</t>
+    <t>378.24</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>1031.98</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>51.599</t>
+  </si>
+  <si>
+    <t>2075.0</t>
+  </si>
+  <si>
+    <t>257.95</t>
+  </si>
+  <si>
+    <t>198.55</t>
+  </si>
+  <si>
+    <t>-3750.1</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2019-11-28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>208.87</t>
+  </si>
+  <si>
+    <t>324.57</t>
+  </si>
+  <si>
+    <t>115.7</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>creditCardType</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>confirmationNumber</t>
+  </si>
+  <si>
+    <t>paSeqNumber</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>paymentMethodId</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>autopayInd</t>
+  </si>
+  <si>
+    <t>SCHEDULED</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-12-23</t>
-  </si>
-  <si>
-    <t>paymentType</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>creditCardType</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>confirmationNumber</t>
-  </si>
-  <si>
-    <t>paSeqNumber</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>paymentMethodId</t>
-  </si>
-  <si>
-    <t>expDate</t>
-  </si>
-  <si>
-    <t>autopayInd</t>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>CHECKING_ACCOUNT</t>
+  </si>
+  <si>
+    <t>1200778710</t>
+  </si>
+  <si>
+    <t>Checking-*0101</t>
+  </si>
+  <si>
+    <t>gx5N1UgO5Hh4ZvskiyNflIkI0jSpUroDo6NX</t>
+  </si>
+  <si>
+    <t>AUTOPAY</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1200777102</t>
+  </si>
+  <si>
+    <t>ARRANGEMENT</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>1200778284</t>
+  </si>
+  <si>
+    <t>180628809</t>
+  </si>
+  <si>
+    <t>Check*0126</t>
+  </si>
+  <si>
+    <t>rMGzih4XHZNgvU5g9nBgtxzm6rrOd5yATe8l</t>
   </si>
   <si>
     <t>paymentMethodToken</t>
@@ -734,58 +1023,208 @@
     <t>isCardAOOwned</t>
   </si>
   <si>
-    <t>Nkxwr5VYvr7Aabcvth1XCOUFCVfOHNbGSKHK</t>
+    <t>r62ukwgLTSjb6aYcojZRV8mA0TEulydgeo4n</t>
+  </si>
+  <si>
+    <t>W39L71MMDEX90101</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>Yh7i1aoRCM9TlsrwhJxnXYskjtdMM85WqisO</t>
+  </si>
+  <si>
+    <t>YWU9FNMTBSVG5454</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t>5454</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>66210</t>
+  </si>
+  <si>
+    <t>gx5N1UgPThRgv9cp5n6fFK6aEa1aJdWRWPDD</t>
+  </si>
+  <si>
+    <t>MmktWX5vnFOOxsc68AmC8Qj7M8JrgHUz6l9J</t>
+  </si>
+  <si>
+    <t>TI2MH6AJ1DY15118</t>
+  </si>
+  <si>
+    <t>5118</t>
+  </si>
+  <si>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>MC*5118</t>
+  </si>
+  <si>
+    <t>2109, Fox Drive</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>61820</t>
+  </si>
+  <si>
+    <t>gx5N1UgPEp4SgwtlE0xQb5kXjR87Mu2qKPCa</t>
+  </si>
+  <si>
+    <t>X3KVeU7eUQz64PrZV496nOFe07l2t1GRst84</t>
+  </si>
+  <si>
+    <t>Check*0101</t>
+  </si>
+  <si>
+    <t>gx5N1UgOf2dPoEkIHeyrdPbVevIKxZ5m5ulN</t>
+  </si>
+  <si>
+    <t>XTugkM5wmVaZlmNiOVSZw8sE98oKO3M0mH88</t>
   </si>
   <si>
     <t>V12KHX6JPFRY0123</t>
   </si>
   <si>
-    <t>CHECKING_ACCOUNT</t>
-  </si>
-  <si>
     <t>0123</t>
   </si>
   <si>
     <t>Checking-*0123</t>
   </si>
   <si>
-    <t>2109, Fox Drive</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Champaign</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>61820</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>XTugkM6M5kyPWC3XILlgTuyCQ7E1bl6cPgKi</t>
-  </si>
-  <si>
-    <t>TNWUG6IAJSGH4113</t>
-  </si>
-  <si>
-    <t>CREDIT_CARD</t>
+    <t>vJJTW6xgr7YTxs1AUGtijEhqojpjBsQlkAqt</t>
+  </si>
+  <si>
+    <t>HC5XVF8DF28K8291</t>
   </si>
   <si>
     <t>VISA</t>
   </si>
   <si>
-    <t>4113</t>
-  </si>
-  <si>
-    <t>01/23</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>8291</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>Visa-*8291</t>
+  </si>
+  <si>
+    <t>ENGLISH VISA</t>
+  </si>
+  <si>
+    <t>66212</t>
+  </si>
+  <si>
+    <t>WZBFSDTSQ9BG0126</t>
+  </si>
+  <si>
+    <t>136524851 136524851</t>
+  </si>
+  <si>
+    <t>yE2GFqfefEiuPrLjYXofaAOF49OSbwo2qJn5</t>
+  </si>
+  <si>
+    <t>E3WRPKLTG9AF4448</t>
+  </si>
+  <si>
+    <t>4448</t>
+  </si>
+  <si>
+    <t>12/22</t>
+  </si>
+  <si>
+    <t>Visa-*4448</t>
+  </si>
+  <si>
+    <t>66251</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>macType</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>isExisting</t>
+  </si>
+  <si>
+    <t>currentDiscount</t>
+  </si>
+  <si>
+    <t>availableDiscount</t>
+  </si>
+  <si>
+    <t>batchProcessInd</t>
+  </si>
+  <si>
+    <t>TST851004</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AUTOPY05A</t>
+  </si>
+  <si>
+    <t>["AUTOPAY"]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ASLAUTOPY</t>
+  </si>
+  <si>
+    <t>["ASL"]</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -882,583 +1321,790 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
         <v>101</v>
       </c>
-      <c r="G13" t="s">
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
         <v>102</v>
       </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>109</v>
@@ -1473,213 +2119,1098 @@
         <v>112</v>
       </c>
       <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
         <v>113</v>
       </c>
-      <c r="J14" t="s">
-        <v>114</v>
-      </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>101</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
+      <c r="K15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
         <v>121</v>
       </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" t="s">
-        <v>123</v>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
         <v>125</v>
       </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" t="s">
-        <v>132</v>
-      </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
         <v>127</v>
       </c>
-      <c r="F17" t="s">
-        <v>137</v>
-      </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" t="s">
+        <v>121</v>
+      </c>
+      <c r="S17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" t="s">
+        <v>121</v>
+      </c>
+      <c r="U17" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" t="s">
+        <v>121</v>
+      </c>
+      <c r="U18" t="s">
+        <v>120</v>
+      </c>
+      <c r="V18" t="s">
+        <v>121</v>
+      </c>
+      <c r="W18" t="s">
+        <v>120</v>
+      </c>
+      <c r="X18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
         <v>139</v>
       </c>
-      <c r="C18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="H18" t="s">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
         <v>142</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="s">
+        <v>139</v>
+      </c>
+      <c r="S20" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="J18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" t="s">
+        <v>139</v>
+      </c>
+      <c r="U21" t="s">
+        <v>138</v>
+      </c>
+      <c r="V21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>134</v>
       </c>
-      <c r="O18" t="s">
-        <v>135</v>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O22" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" t="s">
+        <v>139</v>
+      </c>
+      <c r="U22" t="s">
+        <v>138</v>
+      </c>
+      <c r="V22" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" t="s">
+        <v>138</v>
+      </c>
+      <c r="X22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>138</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23" t="s">
+        <v>138</v>
+      </c>
+      <c r="V23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" t="s">
+        <v>138</v>
+      </c>
+      <c r="X23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>166</v>
+      </c>
+      <c r="R24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>166</v>
+      </c>
+      <c r="R25" t="s">
+        <v>167</v>
+      </c>
+      <c r="S25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" t="s">
+        <v>166</v>
+      </c>
+      <c r="V26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>166</v>
+      </c>
+      <c r="R27" t="s">
+        <v>167</v>
+      </c>
+      <c r="S27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" t="s">
+        <v>167</v>
+      </c>
+      <c r="U27" t="s">
+        <v>166</v>
+      </c>
+      <c r="V27" t="s">
+        <v>167</v>
+      </c>
+      <c r="W27" t="s">
+        <v>166</v>
+      </c>
+      <c r="X27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" t="s">
+        <v>166</v>
+      </c>
+      <c r="T28" t="s">
+        <v>167</v>
+      </c>
+      <c r="U28" t="s">
+        <v>166</v>
+      </c>
+      <c r="V28" t="s">
+        <v>167</v>
+      </c>
+      <c r="W28" t="s">
+        <v>166</v>
+      </c>
+      <c r="X28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>205</v>
+      </c>
+      <c r="R30" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1697,64 +3228,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -1762,587 +3293,587 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="M2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="O2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="N3" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="O3" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="N4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="O4" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="O5" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="Q5" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="T5" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="N6" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="O6" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="N7" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="K8" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="L8" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="O8" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="Q8" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="R8" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="S8" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="T8" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="U8" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I9" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="K9" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" t="s">
+        <v>273</v>
+      </c>
+      <c r="M9" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" t="s">
+        <v>287</v>
+      </c>
+      <c r="O9" t="s">
+        <v>288</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" t="s">
         <v>196</v>
-      </c>
-      <c r="L9" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" t="s">
-        <v>212</v>
-      </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" t="s">
-        <v>25</v>
-      </c>
-      <c r="T9" t="s">
-        <v>25</v>
-      </c>
-      <c r="U9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="O10" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2360,40 +3891,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="K1" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -2401,371 +3932,412 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +4347,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2786,55 +4358,55 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="J1" t="s">
-        <v>230</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="L1" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="M1" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
       <c r="N1" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="O1" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="P1" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="Q1" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="R1" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
@@ -2842,533 +4414,1187 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>344</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>347</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="L4" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>337</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="O4" t="s">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>352</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>354</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>356</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="S7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>354</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>356</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="S8" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="S9" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="K10" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="L10" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="M10" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="N10" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="O10" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M11" t="s">
+        <v>337</v>
+      </c>
+      <c r="N11" t="s">
+        <v>337</v>
+      </c>
+      <c r="O11" t="s">
+        <v>373</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>375</v>
+      </c>
+      <c r="K12" t="s">
+        <v>354</v>
+      </c>
+      <c r="L12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N12" t="s">
+        <v>356</v>
+      </c>
+      <c r="O12" t="s">
+        <v>357</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>338</v>
+      </c>
+      <c r="S12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" t="s">
+        <v>337</v>
+      </c>
+      <c r="M13" t="s">
+        <v>337</v>
+      </c>
+      <c r="N13" t="s">
+        <v>337</v>
+      </c>
+      <c r="O13" t="s">
+        <v>381</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="254">
   <si>
     <t>deviceType</t>
   </si>
@@ -57,15 +57,15 @@
     <t>primary</t>
   </si>
   <si>
+    <t>hppttId</t>
+  </si>
+  <si>
     <t>ban</t>
   </si>
   <si>
     <t>smUser</t>
   </si>
   <si>
-    <t>hppttId</t>
-  </si>
-  <si>
     <t>SMRTPH</t>
   </si>
   <si>
@@ -105,12 +105,12 @@
     <t>false</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ONREG-19630</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>357205091157341</t>
   </si>
   <si>
@@ -318,49 +318,88 @@
     <t>08726971221</t>
   </si>
   <si>
-    <t>089191245709580850</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"723747512"}</t>
-  </si>
-  <si>
-    <t>06643209021 06643209021</t>
-  </si>
-  <si>
-    <t>2104879675</t>
-  </si>
-  <si>
-    <t>IPH8P64GSIL1</t>
-  </si>
-  <si>
-    <t>iPhone 8 Plus 64GB</t>
-  </si>
-  <si>
-    <t>06643209021</t>
-  </si>
-  <si>
-    <t>131507015</t>
-  </si>
-  <si>
-    <t>ST1-27775</t>
-  </si>
-  <si>
-    <t>089394919308781859</t>
-  </si>
-  <si>
-    <t>80161589121 80161589121</t>
-  </si>
-  <si>
-    <t>2103920402</t>
-  </si>
-  <si>
-    <t>IPH864GBGLD1</t>
+    <t>990013610091857</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"972650420"}</t>
+  </si>
+  <si>
+    <t>43643702221 43643702221</t>
+  </si>
+  <si>
+    <t>7734181214</t>
+  </si>
+  <si>
+    <t>OPGM1925BU1</t>
+  </si>
+  <si>
+    <t>Dark Horse</t>
+  </si>
+  <si>
+    <t>43643702221</t>
+  </si>
+  <si>
+    <t>288561502</t>
+  </si>
+  <si>
+    <t>ONREG-25688</t>
+  </si>
+  <si>
+    <t>089891789606881684</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"CHAMPAIGN","address1":"2109 FOX DR","addressType":"S","state":"IL","addressId":"250362429"}</t>
+  </si>
+  <si>
+    <t>01372759121 01372759121</t>
+  </si>
+  <si>
+    <t>8179199722</t>
+  </si>
+  <si>
+    <t>IPH732GBJB1</t>
+  </si>
+  <si>
+    <t>iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>iOS10</t>
+  </si>
+  <si>
+    <t>01372759121</t>
+  </si>
+  <si>
+    <t>266720569</t>
+  </si>
+  <si>
+    <t>ONREG-20095</t>
+  </si>
+  <si>
+    <t>089394868106494324</t>
+  </si>
+  <si>
+    <t>8176902160</t>
+  </si>
+  <si>
+    <t>RCCIP864GRY1</t>
   </si>
   <si>
     <t>iPhone 8 64GB</t>
   </si>
   <si>
-    <t>80161589121</t>
+    <t>06583341221</t>
+  </si>
+  <si>
+    <t>089594292004667669</t>
+  </si>
+  <si>
+    <t>8178005580</t>
+  </si>
+  <si>
+    <t>IPH864GBSIL1</t>
+  </si>
+  <si>
+    <t>57661702011</t>
   </si>
   <si>
     <t>aslAccount</t>
@@ -489,46 +528,31 @@
     <t>6</t>
   </si>
   <si>
-    <t>162.55</t>
-  </si>
-  <si>
-    <t>164.24</t>
-  </si>
-  <si>
-    <t>408.53</t>
-  </si>
-  <si>
-    <t>410.22</t>
-  </si>
-  <si>
-    <t>2019-11-29</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>204.3</t>
-  </si>
-  <si>
-    <t>2019-11-28</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>20.31875</t>
-  </si>
-  <si>
-    <t>830.0</t>
-  </si>
-  <si>
-    <t>140.98</t>
+    <t>49.93</t>
+  </si>
+  <si>
+    <t>70.38</t>
+  </si>
+  <si>
+    <t>528.27</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-14.05</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>paymentType</t>
@@ -723,15 +747,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>XTugkM6SkCFI2HLgNqNrxU7Q9FQkjEmrKRns</t>
-  </si>
-  <si>
-    <t>12/25</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>mac</t>
   </si>
   <si>
@@ -763,18 +778,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ASLAUTOPY</t>
-  </si>
-  <si>
-    <t>["ASL"]</t>
-  </si>
-  <si>
-    <t>7.99</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -874,12 +877,6 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -922,19 +919,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -978,25 +969,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1040,31 +1019,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
       <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1108,37 +1069,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1173,7 +1110,7 @@
         <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
         <v>27</v>
@@ -1182,18 +1119,12 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
       <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1229,7 +1160,7 @@
         <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -1238,24 +1169,12 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
       <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1300,30 +1219,12 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
       <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1359,7 +1260,7 @@
         <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -1368,36 +1269,12 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
       <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1433,7 +1310,7 @@
         <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -1442,42 +1319,12 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
       <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
-      </c>
-      <c r="X10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1513,7 +1360,7 @@
         <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -1522,18 +1369,12 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
       <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1569,7 +1410,7 @@
         <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -1578,24 +1419,12 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
         <v>93</v>
       </c>
-      <c r="O12" t="s">
-        <v>94</v>
-      </c>
       <c r="P12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1610,7 +1439,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -1625,13 +1454,13 @@
         <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
         <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -1640,18 +1469,12 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
         <v>107</v>
       </c>
-      <c r="O13" t="s">
-        <v>108</v>
-      </c>
       <c r="P13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1663,31 +1486,31 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -1696,25 +1519,113 @@
         <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>107</v>
-      </c>
-      <c r="T14" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1732,67 +1643,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="T1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1800,61 +1711,61 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -1865,61 +1776,61 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
         <v>60</v>
@@ -1930,61 +1841,61 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" t="s">
-        <v>137</v>
-      </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
         <v>93</v>
@@ -1992,67 +1903,132 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" t="s">
         <v>160</v>
       </c>
-      <c r="J5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" t="s">
-        <v>164</v>
-      </c>
-      <c r="N5" t="s">
-        <v>165</v>
-      </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,81 +2046,81 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -2152,40 +2128,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>60</v>
@@ -2193,40 +2169,40 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>93</v>
@@ -2234,43 +2210,84 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2291,81 +2308,81 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -2374,31 +2391,31 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
@@ -2406,25 +2423,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>200</v>
-      </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -2433,31 +2450,31 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
         <v>211</v>
       </c>
-      <c r="K3" t="s">
-        <v>203</v>
-      </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
@@ -2465,25 +2482,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -2495,28 +2512,28 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S4" t="s">
         <v>60</v>
@@ -2524,25 +2541,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -2554,28 +2571,28 @@
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S5" t="s">
         <v>60</v>
@@ -2583,25 +2600,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -2613,22 +2630,22 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -2642,25 +2659,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -2669,31 +2686,31 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S7" t="s">
         <v>93</v>
@@ -2701,61 +2718,120 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="S8" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +2841,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2773,51 +2849,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -2826,27 +2902,27 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -2860,22 +2936,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -2895,54 +2971,25 @@
         <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
